--- a/2966-3/3-Katet/regjistri/29-Koordinatat-e-kateve-2966-3-Ferizaj-Armendi-leg.xlsx
+++ b/2966-3/3-Katet/regjistri/29-Koordinatat-e-kateve-2966-3-Ferizaj-Armendi-leg.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Greme\Ingjinjerike\173-4-Greme-Ademi\3-Katet\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Ferizaj\Ingjinierike\2966-1-Ferizaj-Armendi-leg\2966-2\3-Katet\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C22FBF0-CEEA-4DA7-AE54-E6BDDD2B9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="870" yWindow="255" windowWidth="27930" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$58</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
   <si>
     <t>Y</t>
   </si>
@@ -84,28 +79,34 @@
     <t>Terasa</t>
   </si>
   <si>
-    <t>PERDHESA</t>
-  </si>
-  <si>
     <t>Liridon Sejdiu</t>
   </si>
   <si>
-    <t>PERDHESA-TERAS</t>
+    <t>Kati 1</t>
   </si>
   <si>
-    <t>KATI1</t>
+    <t>kati1</t>
   </si>
   <si>
-    <t>KATI1-TERASA</t>
+    <t>perdhese</t>
   </si>
   <si>
-    <t>Kati 1</t>
+    <t>perdhese-terasa</t>
+  </si>
+  <si>
+    <t>bodrum</t>
+  </si>
+  <si>
+    <t>Bodrumi</t>
+  </si>
+  <si>
+    <t>kati1_terasa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -424,11 +425,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -439,16 +477,16 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,8 +495,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,6 +504,12 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,7 +522,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,6 +564,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -551,7 +597,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,7 +801,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Zona Kadastrale: Greme</a:t>
+            <a:t>Zona Kadastrale: Ferizaj</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -824,7 +876,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>: 00173-4</a:t>
+            <a:t>: 02966-2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1191,11 +1243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="B26:I33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="B30:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,115 +1263,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1330,498 +1382,584 @@
       <c r="I12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5">
-        <v>7512915.9336999999</v>
+        <v>7510650.7379999999</v>
       </c>
       <c r="D15" s="5">
-        <v>4688194.9045000002</v>
+        <v>4693484.3602</v>
       </c>
       <c r="E15" s="10">
-        <v>601.94100000000003</v>
+        <v>648.24800000000005</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="44">
-        <v>72.028000000000006</v>
+      <c r="I15" s="46">
+        <v>100.872</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7510653.3530000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4693475.4371999996</v>
+      </c>
+      <c r="E16" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7510655.3514</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4693476.6594000002</v>
+      </c>
+      <c r="E17" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7510648.5892000003</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4693483.0460999999</v>
+      </c>
+      <c r="E18" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7510641.7006000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4693478.8332000002</v>
+      </c>
+      <c r="E19" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>103</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7510653.6935999999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4693474.8667000001</v>
+      </c>
+      <c r="E20" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>104</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7510649.7476000004</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4693472.4534999998</v>
+      </c>
+      <c r="E21" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>105</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7510649.8039999995</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4693472.3590000002</v>
+      </c>
+      <c r="E22" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>106</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7510648.0743000004</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4693471.3010999998</v>
+      </c>
+      <c r="E23" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>107</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7510648.0179000003</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4693471.3956000004</v>
+      </c>
+      <c r="E24" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>108</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7510646.6425000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4693470.5544999996</v>
+      </c>
+      <c r="E25" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="16">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5">
+        <v>7510640.6648000004</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4693480.5681999996</v>
+      </c>
+      <c r="E26" s="10">
+        <v>648.24800000000005</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5">
+        <v>7510647.6119999997</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4693484.6440000003</v>
+      </c>
+      <c r="E27" s="10">
+        <v>648.25300000000004</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="14">
+        <f>SUM(I15:I25)</f>
+        <v>116.572</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5">
-        <v>7512912.4574999996</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4688193.57</v>
-      </c>
-      <c r="E16" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5">
-        <v>7512912.7120000003</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4688192.9069999997</v>
-      </c>
-      <c r="E17" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+      <c r="I30" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5">
+        <v>7510648.7396</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4693483.1380000003</v>
+      </c>
+      <c r="E31" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="35">
+        <v>79.843999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>51</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7510648.5892000003</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4693483.0460999999</v>
+      </c>
+      <c r="E32" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>52</v>
+      </c>
+      <c r="C33" s="5">
+        <v>7510641.7006000001</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4693478.8332000002</v>
+      </c>
+      <c r="E33" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>60</v>
+      </c>
+      <c r="C34" s="5">
+        <v>7510653.6935999999</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4693474.8667000001</v>
+      </c>
+      <c r="E34" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>61</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7510649.8039999995</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4693472.3590000002</v>
+      </c>
+      <c r="E35" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
+        <v>62</v>
+      </c>
+      <c r="C36" s="5">
+        <v>7510648.0659999996</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4693471.3150000004</v>
+      </c>
+      <c r="E36" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>63</v>
+      </c>
+      <c r="C37" s="5">
+        <v>7510648.0179000003</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4693471.3956000004</v>
+      </c>
+      <c r="E37" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>64</v>
+      </c>
+      <c r="C38" s="5">
+        <v>7510646.6425000001</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4693470.5544999996</v>
+      </c>
+      <c r="E38" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>75</v>
+      </c>
+      <c r="C39" s="5">
+        <v>7510649.7476000004</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4693472.4534999998</v>
+      </c>
+      <c r="E39" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="35"/>
+      <c r="H39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5">
-        <v>7512908.3671000004</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4688191.2390000001</v>
-      </c>
-      <c r="E18" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="M18">
-        <v>78.774000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5">
-        <v>7512905.0319999997</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4688199.3990000002</v>
-      </c>
-      <c r="E19" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="M19">
-        <v>4.4909999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
-        <v>167</v>
-      </c>
-      <c r="C20" s="5">
-        <v>7512912.8032999998</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4688202.5635000002</v>
-      </c>
-      <c r="E20" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="M20">
-        <f>SUM(M18:M19)</f>
-        <v>83.265000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5">
-        <v>7512916.9979999997</v>
-      </c>
-      <c r="D21" s="5">
-        <v>4688192.1320000002</v>
-      </c>
-      <c r="E21" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
-        <v>12</v>
-      </c>
-      <c r="C22" s="5">
-        <v>7512911.5231999997</v>
-      </c>
-      <c r="D22" s="5">
-        <v>4688192.4506000001</v>
-      </c>
-      <c r="E22" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="10">
-        <v>14.036</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="I39" s="10">
+        <v>8.3149999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>43</v>
+      </c>
+      <c r="C40" s="5">
+        <v>7510641.1344999997</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4693479.7813999997</v>
+      </c>
+      <c r="E40" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <v>44</v>
+      </c>
+      <c r="C41" s="5">
+        <v>7510648.0900999997</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4693483.8622000003</v>
+      </c>
+      <c r="E41" s="10">
+        <v>651.38900000000001</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="35"/>
+      <c r="H41" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5">
-        <v>7512912.3669999996</v>
-      </c>
-      <c r="D23" s="5">
-        <v>4688190.3370000003</v>
-      </c>
-      <c r="E23" s="10">
-        <v>601.94100000000003</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="15">
-        <f>SUM(I15:I22)</f>
-        <v>86.064000000000007</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5">
-        <v>7512912.8032999998</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4688202.5635000002</v>
-      </c>
-      <c r="E27" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="44">
-        <v>78.774000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5">
-        <v>7512912.7340000002</v>
-      </c>
-      <c r="D28" s="5">
-        <v>4688191.807</v>
-      </c>
-      <c r="E28" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5">
-        <v>7512912.3449999997</v>
-      </c>
-      <c r="D29" s="5">
-        <v>4688192.7699999996</v>
-      </c>
-      <c r="E29" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5">
-        <v>7512908.3671000004</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4688191.2390000001</v>
-      </c>
-      <c r="E30" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5">
-        <v>7512905.0429999996</v>
-      </c>
-      <c r="D31" s="5">
-        <v>4688199.4000000004</v>
-      </c>
-      <c r="E31" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5">
-        <v>7512916.5610999996</v>
-      </c>
-      <c r="D32" s="5">
-        <v>4688193.3693000004</v>
-      </c>
-      <c r="E32" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="10">
-        <v>4.4909999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
-        <v>25</v>
-      </c>
-      <c r="C33" s="5">
-        <v>7512908.7709999997</v>
-      </c>
-      <c r="D33" s="5">
-        <v>4688190.2439999999</v>
-      </c>
-      <c r="E33" s="10">
-        <v>604.78599999999994</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="15">
-        <f>SUM(I27:I32)</f>
-        <v>83.265000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="14">
+        <f>SUM(I31:I39)</f>
+        <v>88.158999999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -1829,7 +1967,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1837,96 +1975,294 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>7</v>
+      </c>
+      <c r="C45" s="5">
+        <v>7510641.693</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4693478.8720000004</v>
+      </c>
+      <c r="E45" s="10">
+        <v>645.96799999999996</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="35">
+        <v>50.45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5">
+        <v>7510648.1128000002</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4693482.6546999998</v>
+      </c>
+      <c r="E46" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5">
+        <v>7510648.0619999999</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4693482.7410000004</v>
+      </c>
+      <c r="E47" s="10">
+        <v>645.86400000000003</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <v>115</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7510644.0905999998</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4693474.8295</v>
+      </c>
+      <c r="E48" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
+        <v>116</v>
+      </c>
+      <c r="C49" s="5">
+        <v>7510653.2237</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4693480.2110000001</v>
+      </c>
+      <c r="E49" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
+        <v>118</v>
+      </c>
+      <c r="C50" s="5">
+        <v>7510648.5768999998</v>
+      </c>
+      <c r="D50" s="5">
+        <v>4693483.1991999997</v>
+      </c>
+      <c r="E50" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="11">
+        <v>119</v>
+      </c>
+      <c r="C51" s="5">
+        <v>7510648.6446000002</v>
+      </c>
+      <c r="D51" s="5">
+        <v>4693483.0843000002</v>
+      </c>
+      <c r="E51" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="11">
+        <v>124</v>
+      </c>
+      <c r="C52" s="5">
+        <v>7510650.6882999996</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4693484.4433000004</v>
+      </c>
+      <c r="E52" s="10">
+        <v>645.94299999999998</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="14">
+        <f>SUM(I45:I50)</f>
+        <v>50.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="21" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17"/>
-    </row>
-    <row r="49" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28" t="s">
+      <c r="I57" s="23"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32">
         <v>140</v>
       </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="19"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K52" s="1"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
-    <mergeCell ref="G15:G23"/>
-    <mergeCell ref="H15:H21"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="G15:G27"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="J57:K58"/>
     <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="H57:I58"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="G31:G41"/>
+    <mergeCell ref="H31:H38"/>
+    <mergeCell ref="I31:I38"/>
+    <mergeCell ref="G45:G52"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="I45:I50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/2966-3/3-Katet/regjistri/29-Koordinatat-e-kateve-2966-3-Ferizaj-Armendi-leg.xlsx
+++ b/2966-3/3-Katet/regjistri/29-Koordinatat-e-kateve-2966-3-Ferizaj-Armendi-leg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Ferizaj\Ingjinierike\2966-1-Ferizaj-Armendi-leg\2966-2\3-Katet\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Ferizaj\Ingjinierike\2966-1-Ferizaj-Armendi-leg\2966-3\3-Katet\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C22FBF0-CEEA-4DA7-AE54-E6BDDD2B9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031CE788-6852-45EC-9C6C-7DFA8B19FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="255" windowWidth="27930" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,6 +510,48 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,48 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="B30:I41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="B14:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,115 +1263,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5">
-        <v>7510650.7379999999</v>
+        <v>7510662.5954999998</v>
       </c>
       <c r="D15" s="5">
-        <v>4693484.3602</v>
+        <v>4693480.5250000004</v>
       </c>
       <c r="E15" s="10">
         <v>648.24800000000005</v>
@@ -1423,25 +1423,25 @@
       <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="46">
-        <v>100.872</v>
+      <c r="I15" s="28">
+        <v>98.998000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5">
-        <v>7510653.3530000001</v>
+        <v>7510659.7607000005</v>
       </c>
       <c r="D16" s="5">
-        <v>4693475.4371999996</v>
+        <v>4693489.9873000002</v>
       </c>
       <c r="E16" s="10">
         <v>648.24800000000005</v>
@@ -1449,19 +1449,19 @@
       <c r="F16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5">
-        <v>7510655.3514</v>
+        <v>7510662.4115000004</v>
       </c>
       <c r="D17" s="5">
-        <v>4693476.6594000002</v>
+        <v>4693480.8405999998</v>
       </c>
       <c r="E17" s="10">
         <v>648.24800000000005</v>
@@ -1469,19 +1469,19 @@
       <c r="F17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5">
-        <v>7510648.5892000003</v>
+        <v>7510657.5647999998</v>
       </c>
       <c r="D18" s="5">
-        <v>4693483.0460999999</v>
+        <v>4693488.6553999996</v>
       </c>
       <c r="E18" s="10">
         <v>648.24800000000005</v>
@@ -1489,19 +1489,19 @@
       <c r="F18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5">
-        <v>7510641.7006000001</v>
+        <v>7510664.3914999999</v>
       </c>
       <c r="D19" s="5">
-        <v>4693478.8332000002</v>
+        <v>4693482.0416000001</v>
       </c>
       <c r="E19" s="10">
         <v>648.24800000000005</v>
@@ -1509,19 +1509,19 @@
       <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5">
-        <v>7510653.6935999999</v>
+        <v>7510650.6701999996</v>
       </c>
       <c r="D20" s="5">
-        <v>4693474.8667000001</v>
+        <v>4693484.4735000003</v>
       </c>
       <c r="E20" s="10">
         <v>648.24800000000005</v>
@@ -1529,19 +1529,19 @@
       <c r="F20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C21" s="5">
-        <v>7510649.7476000004</v>
+        <v>7510658.6602999996</v>
       </c>
       <c r="D21" s="5">
-        <v>4693472.4534999998</v>
+        <v>4693478.1381000001</v>
       </c>
       <c r="E21" s="10">
         <v>648.24800000000005</v>
@@ -1549,19 +1549,19 @@
       <c r="F21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C22" s="5">
-        <v>7510649.8039999995</v>
+        <v>7510658.7253</v>
       </c>
       <c r="D22" s="5">
-        <v>4693472.3590000002</v>
+        <v>4693478.0266000004</v>
       </c>
       <c r="E22" s="10">
         <v>648.24800000000005</v>
@@ -1569,19 +1569,19 @@
       <c r="F22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C23" s="5">
-        <v>7510648.0743000004</v>
+        <v>7510656.9850000003</v>
       </c>
       <c r="D23" s="5">
-        <v>4693471.3010999998</v>
+        <v>4693476.9709999999</v>
       </c>
       <c r="E23" s="10">
         <v>648.24800000000005</v>
@@ -1589,19 +1589,19 @@
       <c r="F23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C24" s="5">
-        <v>7510648.0179000003</v>
+        <v>7510656.4336000001</v>
       </c>
       <c r="D24" s="5">
-        <v>4693471.3956000004</v>
+        <v>4693477.9172</v>
       </c>
       <c r="E24" s="10">
         <v>648.24800000000005</v>
@@ -1609,19 +1609,19 @@
       <c r="F24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C25" s="5">
-        <v>7510646.6425000001</v>
+        <v>7510655.0872</v>
       </c>
       <c r="D25" s="5">
-        <v>4693470.5544999996</v>
+        <v>4693477.1004999997</v>
       </c>
       <c r="E25" s="10">
         <v>648.24800000000005</v>
@@ -1629,23 +1629,23 @@
       <c r="F25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="35"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="16">
-        <v>15.7</v>
+        <v>15.858000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5">
-        <v>7510640.6648000004</v>
+        <v>7510649.6432999996</v>
       </c>
       <c r="D26" s="5">
-        <v>4693480.5681999996</v>
+        <v>4693486.1876999997</v>
       </c>
       <c r="E26" s="10">
         <v>648.24800000000005</v>
@@ -1653,33 +1653,33 @@
       <c r="F26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="35"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27" s="5">
-        <v>7510647.6119999997</v>
+        <v>7510656.5599999996</v>
       </c>
       <c r="D27" s="5">
-        <v>4693484.6440000003</v>
+        <v>4693490.3119999999</v>
       </c>
       <c r="E27" s="10">
-        <v>648.25300000000004</v>
+        <v>648.18100000000004</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="35"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I27" s="14">
         <f>SUM(I15:I25)</f>
-        <v>116.572</v>
+        <v>114.85600000000001</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1740,13 +1740,13 @@
       <c r="F31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="27">
         <v>79.843999999999994</v>
       </c>
     </row>
@@ -1766,11 +1766,11 @@
       <c r="F32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>52</v>
       </c>
@@ -1786,11 +1786,11 @@
       <c r="F33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>60</v>
       </c>
@@ -1806,11 +1806,11 @@
       <c r="F34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>61</v>
       </c>
@@ -1826,11 +1826,11 @@
       <c r="F35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>62</v>
       </c>
@@ -1846,11 +1846,11 @@
       <c r="F36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>63</v>
       </c>
@@ -1866,11 +1866,11 @@
       <c r="F37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>64</v>
       </c>
@@ -1886,11 +1886,17 @@
       <c r="F38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="Q38">
+        <v>98.998000000000005</v>
+      </c>
+      <c r="R38">
+        <v>15.858000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>75</v>
       </c>
@@ -1906,7 +1912,7 @@
       <c r="F39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="35"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="10" t="s">
         <v>14</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>8.3149999999999995</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>43</v>
       </c>
@@ -1930,11 +1936,14 @@
       <c r="F40" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="35"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>98.998000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>44</v>
       </c>
@@ -1950,7 +1959,7 @@
       <c r="F41" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="35"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="14" t="s">
         <v>13</v>
       </c>
@@ -1958,8 +1967,11 @@
         <f>SUM(I31:I39)</f>
         <v>88.158999999999992</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>15.858000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -1967,7 +1979,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1975,7 +1987,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>7</v>
       </c>
@@ -2017,17 +2029,17 @@
       <c r="F45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="27">
         <v>50.45</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>8</v>
       </c>
@@ -2043,11 +2055,11 @@
       <c r="F46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <v>9</v>
       </c>
@@ -2063,11 +2075,11 @@
       <c r="F47" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <v>115</v>
       </c>
@@ -2083,9 +2095,9 @@
       <c r="F48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
@@ -2103,9 +2115,9 @@
       <c r="F49" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
@@ -2123,9 +2135,9 @@
       <c r="F50" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
@@ -2143,7 +2155,7 @@
       <c r="F51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="35"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
@@ -2163,7 +2175,7 @@
       <c r="F52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="35"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="14" t="s">
         <v>13</v>
       </c>
@@ -2206,34 +2218,34 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="22" t="s">
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="18"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="32"/>
     </row>
     <row r="58" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32">
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="46">
         <v>140</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="34"/>
     </row>
     <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K59" s="1"/>
@@ -2246,11 +2258,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C8:J10"/>
-    <mergeCell ref="G15:G27"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="I15:I24"/>
     <mergeCell ref="J57:K58"/>
     <mergeCell ref="A3:K6"/>
     <mergeCell ref="H57:I58"/>
@@ -2263,6 +2270,11 @@
     <mergeCell ref="G45:G52"/>
     <mergeCell ref="H45:H50"/>
     <mergeCell ref="I45:I50"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C8:J10"/>
+    <mergeCell ref="G15:G27"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="I15:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/2966-3/3-Katet/regjistri/29-Koordinatat-e-kateve-2966-3-Ferizaj-Armendi-leg.xlsx
+++ b/2966-3/3-Katet/regjistri/29-Koordinatat-e-kateve-2966-3-Ferizaj-Armendi-leg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ferizaj\Ferizaj\Ingjinierike\2966-1-Ferizaj-Armendi-leg\2966-3\3-Katet\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031CE788-6852-45EC-9C6C-7DFA8B19FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB7CEEC-41E2-4475-A386-1BFB64E6D7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="255" windowWidth="27930" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$56</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>Y</t>
   </si>
@@ -1244,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="B14:I27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B30:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" s="5">
-        <v>7510648.7396</v>
+        <v>7510657.7807</v>
       </c>
       <c r="D31" s="5">
-        <v>4693483.1380000003</v>
+        <v>4693488.7863999996</v>
       </c>
       <c r="E31" s="10">
         <v>651.38900000000001</v>
@@ -1747,18 +1747,18 @@
         <v>16</v>
       </c>
       <c r="I31" s="27">
-        <v>79.843999999999994</v>
+        <v>77.703999999999994</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5">
-        <v>7510648.5892000003</v>
+        <v>7510657.5647999998</v>
       </c>
       <c r="D32" s="5">
-        <v>4693483.0460999999</v>
+        <v>4693488.6553999996</v>
       </c>
       <c r="E32" s="10">
         <v>651.38900000000001</v>
@@ -1770,15 +1770,15 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5">
-        <v>7510641.7006000001</v>
+        <v>7510650.6701999996</v>
       </c>
       <c r="D33" s="5">
-        <v>4693478.8332000002</v>
+        <v>4693484.4735000003</v>
       </c>
       <c r="E33" s="10">
         <v>651.38900000000001</v>
@@ -1790,15 +1790,15 @@
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C34" s="5">
-        <v>7510653.6935999999</v>
+        <v>7510662.5954999998</v>
       </c>
       <c r="D34" s="5">
-        <v>4693474.8667000001</v>
+        <v>4693480.5250000004</v>
       </c>
       <c r="E34" s="10">
         <v>651.38900000000001</v>
@@ -1810,15 +1810,15 @@
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C35" s="5">
-        <v>7510649.8039999995</v>
+        <v>7510658.7253</v>
       </c>
       <c r="D35" s="5">
-        <v>4693472.3590000002</v>
+        <v>4693478.0266000004</v>
       </c>
       <c r="E35" s="10">
         <v>651.38900000000001</v>
@@ -1830,15 +1830,15 @@
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C36" s="5">
-        <v>7510648.0659999996</v>
+        <v>7510656.9850000003</v>
       </c>
       <c r="D36" s="5">
-        <v>4693471.3150000004</v>
+        <v>4693476.9709999999</v>
       </c>
       <c r="E36" s="10">
         <v>651.38900000000001</v>
@@ -1850,15 +1850,15 @@
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C37" s="5">
-        <v>7510648.0179000003</v>
+        <v>7510658.6602999996</v>
       </c>
       <c r="D37" s="5">
-        <v>4693471.3956000004</v>
+        <v>4693478.1381000001</v>
       </c>
       <c r="E37" s="10">
         <v>651.38900000000001</v>
@@ -1870,15 +1870,15 @@
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C38" s="5">
-        <v>7510646.6425000001</v>
+        <v>7510655.1160000004</v>
       </c>
       <c r="D38" s="5">
-        <v>4693470.5544999996</v>
+        <v>4693477.1179999998</v>
       </c>
       <c r="E38" s="10">
         <v>651.38900000000001</v>
@@ -1889,22 +1889,16 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="Q38">
-        <v>98.998000000000005</v>
-      </c>
-      <c r="R38">
-        <v>15.858000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C39" s="5">
-        <v>7510649.7476000004</v>
+        <v>7510656.4336000001</v>
       </c>
       <c r="D39" s="5">
-        <v>4693472.4534999998</v>
+        <v>4693477.9172</v>
       </c>
       <c r="E39" s="10">
         <v>651.38900000000001</v>
@@ -1917,18 +1911,18 @@
         <v>14</v>
       </c>
       <c r="I39" s="10">
-        <v>8.3149999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+        <v>8.6590000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
-        <v>7510641.1344999997</v>
+        <v>7510650.1025</v>
       </c>
       <c r="D40" s="5">
-        <v>4693479.7813999997</v>
+        <v>4693485.4210999999</v>
       </c>
       <c r="E40" s="10">
         <v>651.38900000000001</v>
@@ -1939,19 +1933,16 @@
       <c r="G40" s="27"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="Q40">
-        <v>98.998000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="5">
-        <v>7510648.0900999997</v>
+        <v>7510657.0235000001</v>
       </c>
       <c r="D41" s="5">
-        <v>4693483.8622000003</v>
+        <v>4693489.5478999997</v>
       </c>
       <c r="E41" s="10">
         <v>651.38900000000001</v>
@@ -1965,13 +1956,10 @@
       </c>
       <c r="I41" s="14">
         <f>SUM(I31:I39)</f>
-        <v>88.158999999999992</v>
-      </c>
-      <c r="Q41">
-        <v>15.858000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+        <v>86.363</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -1979,7 +1967,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1987,7 +1975,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>5</v>
       </c>
@@ -2013,18 +2001,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C45" s="5">
-        <v>7510641.693</v>
+        <v>7510650.6589000002</v>
       </c>
       <c r="D45" s="5">
-        <v>4693478.8720000004</v>
+        <v>4693484.4923</v>
       </c>
       <c r="E45" s="10">
-        <v>645.96799999999996</v>
+        <v>645.94299999999998</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>20</v>
@@ -2036,18 +2024,18 @@
         <v>21</v>
       </c>
       <c r="I45" s="27">
-        <v>50.45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+        <v>50.09</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C46" s="5">
-        <v>7510648.1128000002</v>
+        <v>7510657.1150000002</v>
       </c>
       <c r="D46" s="5">
-        <v>4693482.6546999998</v>
+        <v>4693488.3409000002</v>
       </c>
       <c r="E46" s="10">
         <v>645.94299999999998</v>
@@ -2059,18 +2047,18 @@
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C47" s="5">
-        <v>7510648.0619999999</v>
+        <v>7510657.0719999997</v>
       </c>
       <c r="D47" s="5">
-        <v>4693482.7410000004</v>
+        <v>4693488.4129999997</v>
       </c>
       <c r="E47" s="10">
-        <v>645.86400000000003</v>
+        <v>646.09199999999998</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>20</v>
@@ -2079,15 +2067,15 @@
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="C48" s="5">
-        <v>7510644.0905999998</v>
+        <v>7510659.7607000005</v>
       </c>
       <c r="D48" s="5">
-        <v>4693474.8295</v>
+        <v>4693489.9873000002</v>
       </c>
       <c r="E48" s="10">
         <v>645.94299999999998</v>
@@ -2101,13 +2089,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="C49" s="5">
-        <v>7510653.2237</v>
+        <v>7510662.1574999997</v>
       </c>
       <c r="D49" s="5">
-        <v>4693480.2110000001</v>
+        <v>4693485.8748000003</v>
       </c>
       <c r="E49" s="10">
         <v>645.94299999999998</v>
@@ -2116,18 +2104,18 @@
         <v>20</v>
       </c>
       <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="5">
-        <v>7510648.5768999998</v>
+        <v>7510653.0743000004</v>
       </c>
       <c r="D50" s="5">
-        <v>4693483.1991999997</v>
+        <v>4693480.4605</v>
       </c>
       <c r="E50" s="10">
         <v>645.94299999999998</v>
@@ -2136,140 +2124,100 @@
         <v>20</v>
       </c>
       <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
+      <c r="H50" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="14">
+        <f>SUM(I45:I48)</f>
+        <v>50.09</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="11">
-        <v>119</v>
-      </c>
-      <c r="C51" s="5">
-        <v>7510648.6446000002</v>
-      </c>
-      <c r="D51" s="5">
-        <v>4693483.0843000002</v>
-      </c>
-      <c r="E51" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="11">
-        <v>124</v>
-      </c>
-      <c r="C52" s="5">
-        <v>7510650.6882999996</v>
-      </c>
-      <c r="D52" s="5">
-        <v>4693484.4433000004</v>
-      </c>
-      <c r="E52" s="10">
-        <v>645.94299999999998</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="14">
-        <f>SUM(I45:I50)</f>
-        <v>50.45</v>
-      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="37"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="32"/>
     </row>
     <row r="56" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K56" s="1"/>
+      <c r="A56" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="46">
+        <v>140</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="34"/>
     </row>
     <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="37"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="32"/>
-    </row>
-    <row r="58" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46">
-        <v>140</v>
-      </c>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="34"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K61" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J57:K58"/>
+    <mergeCell ref="J55:K56"/>
     <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H57:I58"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:G56"/>
     <mergeCell ref="G31:G41"/>
     <mergeCell ref="H31:H38"/>
     <mergeCell ref="I31:I38"/>
-    <mergeCell ref="G45:G52"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="I45:I48"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
     <mergeCell ref="G15:G27"/>
